--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PyCharm 2022.2.1\pythonProject\NIRModel\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PyCharm 2022.2.1\pythonProject\NIRModel\models\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136AAF4A-38FB-4E29-A594-30598B2E45F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A10795E-EF76-4D8A-8F26-8A7EDCA03690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,846 +25,872 @@
     <t>dcm_name</t>
   </si>
   <si>
-    <t>pred_clahe</t>
-  </si>
-  <si>
-    <t>prob_clahe</t>
-  </si>
-  <si>
-    <t>022-TJZL-00023-QXW-201712181528-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00012-PHQ-201807031722-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00084-CHYM-201711080842-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00196-ZHDF-202003241008-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00443-TQJ-201906281100-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00116-LL-201808240900-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDEF-00175-YYJ-201912241613-D.bmp</t>
-  </si>
-  <si>
-    <t>022-TJZL-00034-CHWH-201803261531-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00301-ZHY-201905171046-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00454-JY-201908130942-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00343-YML-201906170916-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00100-ZHYH-201806261156-D.bmp</t>
-  </si>
-  <si>
-    <t>022-TJZL-00087-WJ-201811161446-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00032-ZHHZH-201807121135-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00061-CHY-201806070846-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00030-LJ-201902131015-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00413-JJF-201907161048-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00423-WHZH-201905051411-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00069-JYQ-201806130854-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00321-WFM-201906061009-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDEF-00114-HQQ-201908020950-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00076-HJH-201711030913-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00259-WBJ-201905311529-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00087-LP-201911281444-D.bmp</t>
-  </si>
-  <si>
-    <t>0311-SJZFY-00002-DQZH-201806111131-D-L.bmp</t>
-  </si>
-  <si>
-    <t>022-TJZL-00047-MMY-201806261543-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00188-HJ-201806081517-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00122-WBF-201801311026-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00104-MYF-201712190850-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00039-LTH-20170825055-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00178-ZHMD-201809120940-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00086-LSHQ-201905141544-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00121-SQL-202011181537-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00200-WXH-201811091536-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00211-LCHY-201806261406-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00255-WXP-201903181202-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00247-LY-201807190959-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00046-QJW-201902261627-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00211-HL-201811231116-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00082-SHYR-201905091400-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00425-FJL-201907191005-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00129-ZHCHP-201808281448-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00324-ZHYF-201906100937-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00155-GCHQ-201804121632-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00127-CHHY-201808271510-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00201-MHJ-201811131031-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00236-ZHLY-201807160911-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00191-RDM-201810291053-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00150-FPP-201804101358-D.bmp</t>
-  </si>
-  <si>
-    <t>022-TJZL-00108-ZLM-201811231514-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00140-MCP-201803230955-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00196-SHJL-201811011109-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00310-DXM-201911011539-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDEF-00153-YY-201910291453-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00420-WZY-201903281525-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00369-ZHL-201811151050-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00075-BYZH-201806140935-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00068-GJR-201904021532-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00197-MYZ-201811051529-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00426-SHML-201905200946-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00153-XSHH-201809061100-D-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00051-ZHAF-201807190951-D-L.bmp</t>
-  </si>
-  <si>
-    <t>022-TJZL-00065-GYE-201810051531-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDEF-00135-XQ-201909161432-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00143-DYL-201807231752-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00189-SHYH-201806121134-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00392-XLY-201907080929-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00120-WJJ-201808241238-D-L.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00433-GHF-201905241401-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00114-GJF-201807091012-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00404-JLQ-201902280931-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00207-ZHJX-201812071532-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00412-WJH-201903111603-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00023-CBJ-201807101713-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00023-CHCHH-201812101359-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00182-XXM-201809281113-D-R.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00088-LP-201912031540-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00008-SHYCH-201809100845-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00445-ZXH-201908021019-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00113-YR-202008251559-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00184-ZHMJ-201809191204-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00470-LWF-201908301420-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00283-HYQ-201808130841-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00099-LXQ-201906251127-D-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00002-CHHY-201806261723-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00003-HYM-201707131339-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00186-ZHLJ-201809260835-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00282-HDM-201905070959-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00341-ZHYF-201906141045-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00167-XLL-201809181003-D-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00202-CHJF-201811211120-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00429-XSL-201905221035-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00168-WLF-201911181441-D-L.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00215-WYD-201811280950-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00180-TJM-201809271008-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00073-SQX-201807301015-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00030-SHFF-201807120950-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00258-CHHF-201905311503-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00279-CHXH-201905031035-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00216-YFM-202007161432-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00316-ZHLCH-201906040935-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00022-LX-201901151400-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00072-HZHQ-2019081315447-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00102-SYP-201712181320-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00065-YJ-201903251436-D-R.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00314-YYH-201808301126-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00103-MYX-201712181506-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00320-XCHX-201809031029-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00110-WH-202007302606-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00056-ZHXP-201807230949-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00035-YWF-201805161140-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00113-GYQ-201907301313-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00148-WX-201807261131-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00436-WGF-201907230926-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00197-LFR-202003241014-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00266-ZHYX-201904230954-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00082-WY-201808070958-D-R.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00242-GMR-201903270846-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00260-ZHYJ-201905311544-D.bmp</t>
-  </si>
-  <si>
-    <t>022-TJZL-00037-ZHGL-201805031504-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00450-ZHKL-201908090801-D.bmp</t>
-  </si>
-  <si>
-    <t>023-CHQSY-00022-HCHW-201808221015-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00205-XL-202005091040-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00188-XJQ-201810251223-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00017-WCH-201811071350-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00258-ZHLT-201903190936-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00172-YHY-201808291133-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDEF-00187-FQ-202001211433-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00310-XHM-201808290906-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00296-YMH-201910230829-D.bmp</t>
-  </si>
-  <si>
-    <t>0311-SJZFY-00013-JXJ-201904221150-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00075-LY-201909101424-DZ.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00158-ZHY-201911051152-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00312-BH-201906030956-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00428-LSM-201905211048-D.bmp</t>
-  </si>
-  <si>
-    <t>022-TJZL-00083-LWY-201811141417-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00433-DSHY-201907221100-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00022-DMY-201807091031-D-R.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00100-CHJ-201906251138-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00386-SSHL-201812181503-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00260-HYY-201903251020-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00008-CHZF-201707140943-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00171-YL-201808291030-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00072-ZHJF-201807301020-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00102-WSHQ-201906271410-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00034-WCX-201708170934-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00155-LSQ-201809061432-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDEF-00191-YM-202003050943-D.bmp</t>
-  </si>
-  <si>
-    <t>0311-SJZFY-00009-LYL-201901151120-D-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00017-WHY-201807051517-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00407-FYCH-201902281444-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00095-ML-201906191042-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00242-ZHL-201807171404-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00040-WYP-201708251025-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00111-LLJ-201808231047-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00311-HXD-201911051539-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00447-LHZH-201908051157-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00133-ZHN-201909110834-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00017-CZHY-201901101113-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00116-LFM-201801290845-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00421-HJQ-201907190911-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00146-HJF-201804031110-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00049-GSHL-201807181104-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00217-RLR-202007281329-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00047-LCHH-201902270954-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00144-YY-201910180925-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00009-LDD-201809110837-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00072-YH-201710270945-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00051-XXY-201805280952-D-R.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00410-LKL-201903010925-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00194-QQ-202003240831-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00371-MLQ-201906280940-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00406-ZHLY-201902281036-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00313-CHXX-201808301117-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00058-ZHFD-201807231035-D-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00035-HJY-201807121224-D-R.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00132-YLJ-201807181116-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00165-GCHX-201808151555-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00430-LJL-201905221045-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00137-LHR-201807191450-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00437-CRH-201906200909-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00079-ZHJ-2019051403-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00340-LLP-201906140920-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00255-WL-201807261001-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00314-YFF-201906031346-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00025-XHJ-201807111033-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00233-DL-201902211652-D-L.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00236-XMY-201902250956-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00006-WL-201707140849-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00195-QCG-201806151000-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00054-GWL-201805300818-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00396-CHGM-201812291147-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00283-FXF-201905071007-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00018-LQ-201901141344-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00272-CHGL-201904251000-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00089-LSHZH-201808061420-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00207-WT-202005121004-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00019-HPX-201807090946-D-R.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00234-JYQ-201902220953-D-L.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00090-ZHT-201906180828-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00070-LY-201806130921-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00357-CHHY-201810311435-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00409-DMF-201907160946-D.bmp</t>
-  </si>
-  <si>
-    <t>010-BJBA-00007-GQY-201709040946-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00108-ZHDR-201801051559-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00271-WJ-201907121048-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00078-ZHYL-201910081036-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00163-HSHZH-201809120952-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00277-HXY-201808081037-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00072-HXN-201806131030-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00459-ZHXH-201907311404-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00070-CHJF-201710231512-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00121-XJF-201801310949-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00186-WTG-201810181143-D-L.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00118-WJM-201908081530-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00137-ZHXE-201808310940-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00010-XNQ-201807031418-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00062-LJX-201807241439-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00458-XXL-201907311054-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00415-HLH-201907171034-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00278-WCHQ-201808081622-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00166-ZHYZ-201804271021-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00362-SHHX-201906241007-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00093-HL-201712111219-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00046-YML-201709041621-D.bmp</t>
-  </si>
-  <si>
-    <t>023-CHQSY-00005-TDH-201804081845-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00160-ZHDL-201808071648-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDEF-00140-LF-201909180910-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00186-ZHJ-202001171324-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00363-XHM-201811051324-D.bmp</t>
-  </si>
-  <si>
-    <t>023-CHQSY-00014-WJ-201807060916-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00083-ZHJH-201711081344-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00231-SLZH-201807120937-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00206-CHQF-202005111335-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00317-JWX-201808311036-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00330-YGE-201906110958-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00011-YJY-201807031713-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00181-LAL-201809171051-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00090-DHY-201806200826-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00165-YHM-201911121111-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00411-ZSHJ-201903010940-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00417-QHD-201907171119-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00176-ZHXJ-201809261042-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00091-LYQ-201711241117-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00305-JFH-201910301645-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00243-LR-201905051110-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00275-XXQ-201904290913-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00435-YFY-201907230858-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00184-CMZH-201806061107-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00122-CHX-201908291306-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00085-ZHJ-201711081326-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDEF-00148-ZRY-201910221540-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00074-XXX-201711011518-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00348-PXQ-201906180932-D.bmp</t>
-  </si>
-  <si>
-    <t>0531-SDZL-00058-FQX-201905271554-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00260-ZHGP-201807311431-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00376-ZHJF-201907011102-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00351-WXJ-201810221547-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00384-ZHYM-201907041007-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00144-HYL-201809061221-D-R.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00275-ZHMY-201808071321-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00122-WNY-201808270959-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00164-HY-201804251158-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00024-CHXW-201708100945-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00125-TCHY-201802011138-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00452-WSQ-201908130826-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00077-YHR-201904281428-D.bmp</t>
-  </si>
-  <si>
-    <t>028-CDFE-00093-ZHZHH-201906191018-D.bmp</t>
-  </si>
-  <si>
-    <t>023-CHQSY-00037-LDR-201903221109-D-R.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00417-CHY-201903271622-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00044-CHHJ-201708301554-D.bmp</t>
-  </si>
-  <si>
-    <t>029-CDFE-00050-HNY-201903071618-D.bmp</t>
-  </si>
-  <si>
-    <t>021-SHZL-00241-CXF-201807170913-D.bmp</t>
-  </si>
-  <si>
-    <t>029-XAJD-00119-SQ-201807101108-D.bmp</t>
-  </si>
-  <si>
-    <t>0571-ZHJSH-00087-ZXL-201808060944-D.bmp</t>
+    <t>clahe_0531-SDZL-00110-WH-202007302606-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00447-LHZH-201908051157-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00363-XHM-201811051324-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00165-GCHX-201808151555-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00433-GHF-201905241401-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00118-WJM-201908081530-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00085-ZHJ-201711081326-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00340-LLP-201906140920-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00186-ZHJ-202001171324-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00420-WZY-201903281525-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00384-ZHYM-201907041007-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDEF-00140-LF-201909180910-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00084-CHYM-201711080842-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00415-HLH-201907171034-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_023-CHQSY-00014-WJ-201807060916-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-CDFE-00068-GJR-201904021532-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00320-XCHX-201809031029-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0311-SJZFY-00009-LYL-201901151120-D-L.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00362-SHHX-201906241007-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00202-CHJF-201811211120-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00348-PXQ-201906180932-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00211-LCHY-201806261406-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00283-HYQ-201808130841-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00090-DHY-201806200826-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00181-LAL-201809171051-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00314-YYH-201808301126-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00236-ZHLY-201807160911-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00083-ZHJH-201711081344-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00121-XJF-201801310949-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00075-BYZH-201806140935-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00404-JLQ-201902280931-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00205-XL-202005091040-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00242-GMR-201903270846-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00184-ZHMJ-201809191204-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00153-XSHH-201809061100-D-L.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-CDFE-00046-QJW-201902261627-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00259-WBJ-201905311529-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00165-YHM-201911121111-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_023-CHQSY-00037-LDR-201903221109-D-R.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00428-LSM-201905211048-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00189-SHYH-201806121134-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00099-LXQ-201906251127-D-L.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00324-ZHYF-201906100937-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00260-HYY-201903251020-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00012-PHQ-201807031722-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0311-SJZFY-00013-JXJ-201904221150-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00010-XNQ-201807031418-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00111-LLJ-201808231047-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_010-BJBA-00007-GQY-201709040946-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00313-CHXX-201808301117-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00163-HSHZH-201809120952-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00452-WSQ-201908130826-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00022-DMY-201807091031-D-R.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00215-WYD-201811280950-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00296-YMH-201910230829-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0531-SDZL-00088-LP-201912031540-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00470-LWF-201908301420-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00211-HL-201811231116-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00102-SYP-201712181320-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00160-ZHDL-201808071648-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00421-HJQ-201907190911-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00201-MHJ-201811131031-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00125-TCHY-201802011138-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00168-WLF-201911181441-D-L.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00392-XLY-201907080929-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00116-LFM-201801290845-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0531-SDZL-00017-WCH-201811071350-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00255-WXP-201903181202-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00191-RDM-201810291053-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00312-BH-201906030956-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00032-ZHHZH-201807121135-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-CDFE-00065-YJ-201903251436-D-R.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-CDFE-00050-HNY-201903071618-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00148-WX-201807261131-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00072-ZHJF-201807301020-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_022-TJZL-00087-WJ-201811161446-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00054-GWL-201805300818-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00305-JFH-201910301645-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0531-SDZL-00058-FQX-201905271554-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00150-FPP-201804101358-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00122-CHX-201908291306-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00396-CHGM-201812291147-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00008-CHZF-201707140943-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00093-ZHZHH-201906191018-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_023-CHQSY-00022-HCHW-201808221015-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00413-JJF-201907161048-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00155-LSQ-201809061432-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00176-ZHXJ-201809261042-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00133-ZHN-201909110834-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00127-CHHY-201808271510-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00435-YFY-201907230858-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00196-ZHDF-202003241008-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00074-XXX-201711011518-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00271-WJ-201907121048-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00243-LR-201905051110-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00017-WHY-201807051517-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00113-GYQ-201907301313-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0531-SDZL-00008-SHYCH-201809100845-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00056-ZHXP-201807230949-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00158-ZHY-201911051152-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00137-ZHXE-201808310940-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00200-WXH-201811091536-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00104-MYF-201712190850-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_022-TJZL-00023-QXW-201712181528-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00180-TJM-201809271008-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00035-HJY-201807121224-D-R.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00034-WCX-201708170934-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00102-WSHQ-201906271410-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00314-YFF-201906031346-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00024-CHXW-201708100945-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-CDFE-00047-LCHH-201902270954-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00073-SQX-201807301015-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00186-ZHLJ-201809260835-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00090-ZHT-201906180828-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00206-CHQF-202005111335-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00197-MYZ-201811051529-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDEF-00175-YYJ-201912241613-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00197-LFR-202003241014-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0531-SDZL-00009-LDD-201809110837-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00236-XMY-201902250956-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00184-CMZH-201806061107-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00195-QCG-201806151000-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00146-HJF-201804031110-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00433-DSHY-201907221100-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00095-ML-201906191042-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00178-ZHMD-201809120940-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00443-TQJ-201906281100-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00040-WYP-201708251025-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00343-YML-201906170916-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00039-LTH-20170825055-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00258-CHHF-201905311503-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00188-HJ-201806081517-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00100-CHJ-201906251138-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00132-YLJ-201807181116-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00030-SHFF-201807120950-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0531-SDZL-00023-CHCHH-201812101359-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00120-WJJ-201808241238-D-L.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00100-ZHYH-201806261156-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00406-ZHLY-201902281036-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00330-YGE-201906110958-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00357-CHHY-201810311435-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0531-SDZL-00072-HZHQ-2019081315447-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00182-XXM-201809281113-D-R.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00196-SHJL-201811011109-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00310-XHM-201808290906-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_022-TJZL-00037-ZHGL-201805031504-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00425-FJL-201907191005-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00114-GJF-201807091012-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00167-XLL-201809181003-D-R.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0531-SDZL-00121-SQL-202011181537-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00072-HXN-201806131030-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_022-TJZL-00108-ZLM-201811231514-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00277-HXY-201808081037-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00087-ZXL-201808060944-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00417-CHY-201903271622-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00207-ZHJX-201812071532-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00386-SSHL-201812181503-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00082-SHYR-201905091400-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00051-ZHAF-201807190951-D-L.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00046-YML-201709041621-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_022-TJZL-00047-MMY-201806261543-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDEF-00187-FQ-202001211433-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDEF-00148-ZRY-201910221540-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0531-SDZL-00078-ZHYL-201910081036-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00006-WL-201707140849-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0531-SDZL-00113-YR-202008251559-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00260-ZHYJ-201905311544-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00116-LL-201808240900-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00137-LHR-201807191450-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00454-JY-201908130942-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00369-ZHL-201811151050-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00143-DYL-201807231752-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDEF-00114-HQQ-201908020950-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00091-LYQ-201711241117-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00231-SLZH-201807120937-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00076-HJH-201711030913-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00166-ZHYZ-201804271021-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00011-YJY-201807031713-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00119-SQ-201807101108-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00072-YH-201710270945-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_022-TJZL-00034-CHWH-201803261531-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00207-WT-202005121004-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00411-ZSHJ-201903010940-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00103-MYX-201712181506-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00188-XJQ-201810251223-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00129-ZHCHP-201808281448-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00437-CRH-201906200909-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00282-HDM-201905070959-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00311-HXD-201911051539-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00445-ZXH-201908021019-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00003-HYM-201707131339-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00062-LJX-201807241439-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00436-WGF-201907230926-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00233-DL-201902211652-D-L.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-CDFE-00018-LQ-201901141344-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00376-ZHJF-201907011102-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00122-WNY-201808270959-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00351-WXJ-201810221547-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00019-HPX-201807090946-D-R.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00255-WL-201807261001-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00044-CHHJ-201708301554-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00164-HY-201804251158-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00341-ZHYF-201906141045-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00450-ZHKL-201908090801-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_022-TJZL-00083-LWY-201811141417-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00412-WJH-201903111603-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00242-ZHL-201807171404-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00069-JYQ-201806130854-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00049-GSHL-201807181104-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00417-QHD-201907171119-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00172-YHY-201808291133-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00458-XXL-201907311054-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00272-CHGL-201904251000-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00371-MLQ-201906280940-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-CDFE-00079-ZHJ-2019051403-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00423-WHZH-201905051411-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00217-RLR-202007281329-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0531-SDZL-00087-LP-201911281444-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDEF-00191-YM-202003050943-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00002-CHHY-201806261723-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00407-FYCH-201902281444-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00030-LJ-201902131015-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00301-ZHY-201905171046-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00234-JYQ-201902220953-D-L.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00275-ZHMY-201808071321-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00070-LY-201806130921-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00155-GCHQ-201804121632-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00247-LY-201807190959-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00186-WTG-201810181143-D-L.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00144-YY-201910180925-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00144-HYL-201809061221-D-R.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDEF-00135-XQ-201909161432-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00241-CXF-201807170913-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0531-SDZL-00075-LY-201909101424-DZ.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00070-CHJF-201710231512-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00058-ZHFD-201807231035-D-L.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00093-HL-201712111219-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0311-SJZFY-00002-DQZH-201806111131-D-L.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00426-SHML-201905200946-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00051-XXY-201805280952-D-R.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00279-CHXH-201905031035-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00122-WBF-201801311026-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00194-QQ-202003240831-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-CDFE-00077-YHR-201904281428-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00082-WY-201808070958-D-R.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00089-LSHZH-201808061420-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00086-LSHQ-201905141544-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00310-DXM-201911011539-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00023-CBJ-201807101713-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDEF-00153-YY-201910291453-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00278-WCHQ-201808081622-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00171-YL-201808291030-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00275-XXQ-201904290913-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00410-LKL-201903010925-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00430-LJL-201905221045-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00266-ZHYX-201904230954-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00317-JWX-201808311036-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-CDFE-00017-CZHY-201901101113-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00108-ZHDR-201801051559-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_023-CHQSY-00005-TDH-201804081845-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00459-ZHXH-201907311404-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00316-ZHLCH-201906040935-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00409-DMF-201907160946-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_028-CDFE-00216-YFM-202007161432-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00061-CHY-201806070846-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00025-XHJ-201807111033-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00258-ZHLT-201903190936-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00283-FXF-201905071007-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00140-MCP-201803230955-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-XAJD-00035-YWF-201805161140-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00429-XSL-201905221035-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_029-CDFE-00022-LX-201901151400-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_0571-ZHJSH-00321-WFM-201906061009-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_022-TJZL-00065-GYE-201810051531-D.bmp</t>
+  </si>
+  <si>
+    <t>clahe_021-SHZL-00260-ZHGP-201807311431-D.bmp</t>
+  </si>
+  <si>
+    <t>pred</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prob</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pred</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>prob</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>label</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pred_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prob</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -872,7 +898,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,6 +918,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -929,9 +962,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1239,51 +1275,49 @@
   <dimension ref="A1:F276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.9459957480430603</v>
+        <v>0.6192479133605957</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2.577347913756967E-3</v>
+        <v>6.9373853504657745E-2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1294,19 +1328,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.29717907309532171</v>
+        <v>2.5144100072793663E-4</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.91263222694396973</v>
+        <v>6.5517615439603114E-6</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1314,39 +1348,39 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.52012449502944946</v>
+        <v>2.8016295284032822E-2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.46965861320495611</v>
+        <v>1.8900668248534199E-2</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1.6578936949372292E-2</v>
+        <v>0.99989807605743408</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1.413543941453099E-3</v>
+        <v>0.9927668571472168</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1354,36 +1388,36 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.92021232843399048</v>
+        <v>0.98276019096374512</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.14013902842998499</v>
+        <v>0.99952232837677002</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.27356654405593872</v>
+        <v>1.0224355384707451E-2</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.0331967622041699E-2</v>
+        <v>2.5702480343170459E-4</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1394,39 +1428,39 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>2.1134970709681511E-2</v>
+        <v>2.7090571820735931E-2</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.4903487479314208E-4</v>
+        <v>3.118119016289711E-2</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0.45900371670722961</v>
+        <v>5.3414054214954383E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.99966979026794434</v>
+        <v>0.1560501754283905</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1434,16 +1468,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0.2039097994565964</v>
+        <v>3.2712465326767408E-5</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.0009652301669121E-3</v>
+        <v>7.5137741077924147E-6</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1454,36 +1488,36 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.1120866388082504</v>
+        <v>0.51992303133010864</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>4.338153637945652E-3</v>
+        <v>0.99610656499862671</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0.17020159959793091</v>
+        <v>4.4905133545398712E-3</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.460359200835228E-2</v>
+        <v>5.818584468215704E-4</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1494,19 +1528,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0.95507127046585083</v>
+        <v>7.529799360781908E-3</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9938092827796936</v>
+        <v>1.4717795420438051E-4</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1514,19 +1548,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>2.298353053629398E-2</v>
+        <v>0.46965861320495611</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.9291713386774063E-2</v>
+        <v>0.85693788528442383</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1534,36 +1568,36 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>9.4667896628379822E-2</v>
+        <v>6.0251745162531734E-4</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.9954602718353271E-2</v>
+        <v>2.8564647436724041E-5</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>4.9764369614422321E-3</v>
+        <v>1.0260778479278089E-2</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.0558139658533039E-4</v>
+        <v>6.4009688794612885E-2</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1574,16 +1608,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>4.8386240378022194E-3</v>
+        <v>1.161317704827525E-4</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.5495809647254653E-5</v>
+        <v>2.6457821149961092E-5</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1594,56 +1628,56 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>0.25083315372467041</v>
+        <v>0.96746593713760376</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>7.7028781175613403E-2</v>
+        <v>0.99327927827835083</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>0.97752916812896729</v>
+        <v>5.3833369165658951E-3</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.99978846311569214</v>
+        <v>8.4134296048432589E-4</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>1.9396796822547909E-2</v>
+        <v>0.8104674220085144</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>1.670882338657975E-3</v>
+        <v>7.9680286347866058E-2</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1654,16 +1688,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>1.519978791475296E-2</v>
+        <v>3.6468689795583491E-3</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.7206760123372081E-2</v>
+        <v>4.847457748837769E-4</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1674,16 +1708,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>2.2995715960860249E-2</v>
+        <v>0.70275229215621948</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1.736333506414667E-4</v>
+        <v>6.9794848561286926E-2</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1694,16 +1728,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>0.85385429859161377</v>
+        <v>0.97566264867782593</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0.99146550893783569</v>
+        <v>0.99824810028076172</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1714,56 +1748,56 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>2.8825651854276661E-2</v>
+        <v>6.4982580952346316E-3</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.0872269310057163E-3</v>
+        <v>2.4505689740180969E-2</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>0.54699641466140747</v>
+        <v>1.690202858299017E-3</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.53738659620285034</v>
+        <v>1.52530474588275E-3</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>0.15061022341251371</v>
+        <v>6.048095878213644E-3</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.4569956362247467</v>
+        <v>2.084222156554461E-3</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1774,39 +1808,39 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>0.14888033270835879</v>
+        <v>0.96044397354125977</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>1.343207061290741E-2</v>
+        <v>0.78784823417663574</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>1.410253718495369E-2</v>
+        <v>0.99954837560653687</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>1.668928936123848E-2</v>
+        <v>0.99910455942153931</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1814,19 +1848,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>0.9290955662727356</v>
+        <v>0.65368443727493286</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0.98483049869537354</v>
+        <v>0.10720072686672211</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1834,76 +1868,76 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>0.96618717908859253</v>
+        <v>0.99540740251541138</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0.99976617097854614</v>
+        <v>0.95668530464172363</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>0.92757922410964966</v>
+        <v>2.9095860663801432E-3</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0.98305630683898926</v>
+        <v>6.9061288377270103E-4</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>1.6594484448432919E-2</v>
+        <v>2.545446390286088E-3</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>9.6088304417207837E-5</v>
+        <v>0.19317060708999631</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>8.8826969265937805E-2</v>
+        <v>1.3470490230247381E-3</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0.1739835441112518</v>
+        <v>2.1506801247596741E-2</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1914,36 +1948,36 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>2.3176852613687519E-2</v>
+        <v>6.0008064610883594E-4</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1.675744657404721E-3</v>
+        <v>8.5805928392801434E-5</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>0.33812761306762701</v>
+        <v>0.82690143585205078</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>8.295709639787674E-2</v>
+        <v>6.8008355796337128E-2</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1954,76 +1988,76 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>0.27085337042808533</v>
+        <v>4.5850625610910361E-4</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.97566264867782593</v>
+        <v>2.834065817296505E-4</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>3.5514102783054109E-3</v>
+        <v>2.8243700508028269E-3</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>2.5499961338937283E-4</v>
+        <v>1.0988154448568819E-2</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>0.48095151782035828</v>
+        <v>4.0872269310057163E-3</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.18794946372509</v>
+        <v>2.9213046655058861E-3</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>0.12030684947967531</v>
+        <v>8.1940216477960348E-4</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>2.8243700508028269E-3</v>
+        <v>2.1533941850066182E-2</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2034,19 +2068,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>2.462213858962059E-2</v>
+        <v>0.39506259560585022</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>2.2227153182029721E-2</v>
+        <v>0.79473882913589478</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2054,36 +2088,36 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>4.7592844814062119E-2</v>
+        <v>0.99175149202346802</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>5.5990242399275303E-3</v>
+        <v>0.62246817350387573</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>3.010134398937225E-2</v>
+        <v>1.1647531762719149E-2</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1.0362693574279551E-3</v>
+        <v>1.4453854237217459E-4</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2094,16 +2128,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>8.949674665927887E-3</v>
+        <v>9.1060902923345566E-4</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>2.5591517332941289E-3</v>
+        <v>0.12774559855461121</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2114,16 +2148,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>1.8331956118345261E-2</v>
+        <v>1.129503129050136E-3</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1.129503129050136E-3</v>
+        <v>1.0089010174851861E-4</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2134,56 +2168,56 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>0.90094566345214844</v>
+        <v>1.4122512948233629E-4</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>0.41086670756340032</v>
+        <v>1.319458169746213E-5</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>5.8758188970386982E-3</v>
+        <v>0.91263222694396973</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>9.7975996322929859E-4</v>
+        <v>0.48373723030090332</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>0.30883622169494629</v>
+        <v>1.027632504701614E-2</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>3.4840360283851617E-2</v>
+        <v>3.084642114117742E-3</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2194,16 +2228,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>0.95913290977478027</v>
+        <v>2.1141378208994869E-2</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0.99954837560653687</v>
+        <v>0.97984236478805542</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2214,16 +2248,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>5.2769593894481659E-3</v>
+        <v>1.029627965181135E-4</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>2.8176876367069781E-4</v>
+        <v>5.7861133245751262E-4</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2234,16 +2268,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>0.95453625917434692</v>
+        <v>0.33206838369369512</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0.99460572004318237</v>
+        <v>0.99445080757141113</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2254,76 +2288,76 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>7.4081383645534524E-3</v>
+        <v>0.10142152011394499</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>4.9495827406644821E-3</v>
+        <v>0.92774224281311035</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>0.96312820911407471</v>
+        <v>1.9658633973449469E-3</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0.99724626541137695</v>
+        <v>2.1146560087800029E-2</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>0.26776847243309021</v>
+        <v>0.31629881262779241</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1.24067310243845E-2</v>
+        <v>0.94745433330535889</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>8.7471231818199158E-2</v>
+        <v>1.0527936974540351E-3</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>3.967459499835968E-2</v>
+        <v>4.1843132930807769E-4</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2334,16 +2368,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>3.7174209952354431E-2</v>
+        <v>5.1119335694238544E-4</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>2.4768360890448089E-3</v>
+        <v>2.01292732526781E-5</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2354,36 +2388,36 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>0.85238707065582275</v>
+        <v>5.4684211499989033E-3</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0.51992303133010864</v>
+        <v>3.7360857822932298E-4</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>0.96889066696166992</v>
+        <v>8.5773998871445656E-3</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0.2866208553314209</v>
+        <v>2.601549262180924E-3</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2394,36 +2428,36 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>1.7681082710623741E-2</v>
+        <v>0.77883923053741455</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>2.9095860663801432E-3</v>
+        <v>0.99657070636749268</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>6.6804960370063782E-3</v>
+        <v>2.2227153182029721E-2</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1.161317704827525E-4</v>
+        <v>1.6899727284908291E-2</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2434,56 +2468,56 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>1.5697792172431949E-2</v>
+        <v>3.5708416253328319E-3</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>4.3744567781686783E-2</v>
+        <v>1.074277143925428E-2</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>0.97734922170639038</v>
+        <v>9.9470112472772598E-3</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>0.37407574057579041</v>
+        <v>5.2058633416891098E-2</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>1.958707720041275E-2</v>
+        <v>1.1670124949887391E-3</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>4.5850625610910361E-4</v>
+        <v>8.5150175436865538E-5</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2494,39 +2528,39 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>1.260244660079479E-2</v>
+        <v>3.4840360283851617E-2</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1.8662643560674039E-4</v>
+        <v>1.095501892268658E-2</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>0.12587405741214749</v>
+        <v>0.95101022720336914</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>5.0075980834662914E-4</v>
+        <v>0.99932456016540527</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2534,16 +2568,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>1.8892122432589531E-2</v>
+        <v>2.307775197550654E-3</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1.3224196154624219E-3</v>
+        <v>1.2517250142991541E-3</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2554,16 +2588,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>6.2527596950531006E-2</v>
+        <v>2.429547312203795E-4</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>6.0186475515365601E-2</v>
+        <v>7.9792889664531685E-6</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2574,19 +2608,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>1.6087289899587631E-2</v>
+        <v>0.49812054634094238</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1.1647531762719149E-2</v>
+        <v>0.82856178283691406</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2594,19 +2628,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>1.40230692923069E-2</v>
+        <v>0.94514679908752441</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>2.429547312203795E-4</v>
+        <v>0.99695008993148804</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2614,39 +2648,39 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>0.57401901483535767</v>
+        <v>2.5499961338937283E-4</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>0.71987819671630859</v>
+        <v>1.286226324737072E-5</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>0.97967702150344849</v>
+        <v>2.8120281058363622E-4</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>0.98276019096374512</v>
+        <v>1.9812685422948562E-5</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2654,19 +2688,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>5.9016991406679153E-2</v>
+        <v>7.1198411285877228E-2</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0.71971213817596436</v>
+        <v>8.320954442024231E-2</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2674,16 +2708,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>0.180588498711586</v>
+        <v>3.9954602718353271E-2</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2.5534748565405612E-3</v>
+        <v>0.36651277542114258</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2694,16 +2728,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>0.83202481269836426</v>
+        <v>7.9901923891156912E-4</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>1.7559801926836369E-4</v>
+        <v>5.2469522415776737E-6</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2714,59 +2748,59 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>0.38012927770614618</v>
+        <v>2.6530766626819968E-4</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.87830853462219238</v>
+        <v>6.9295824505388737E-4</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>0.73492813110351563</v>
+        <v>1.177752274088562E-3</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>5.6493159383535392E-2</v>
+        <v>4.6361363492906094E-3</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>0.10175337642431261</v>
+        <v>3.3620148315094411E-4</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0.9937407374382019</v>
+        <v>4.1764310481084976E-6</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2774,16 +2808,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>0.25061798095703119</v>
+        <v>3.9291713386774063E-2</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>3.6374314222484831E-3</v>
+        <v>0.31596240401268011</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2794,99 +2828,99 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>0.25676622986793518</v>
+        <v>1.1791543802246449E-3</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>8.5773998871445656E-3</v>
+        <v>5.2343388233566657E-5</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>0.87888211011886597</v>
+        <v>5.0942297093570232E-4</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>0.52563583850860596</v>
+        <v>4.0154995076591149E-5</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>2.2842045873403549E-2</v>
+        <v>0.1009175106883049</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>1.213271752931178E-3</v>
+        <v>0.99487113952636719</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>0.95778638124465942</v>
+        <v>0.99460572004318237</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>0.68696010112762451</v>
+        <v>0.9998202919960022</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>3.4410588443279273E-2</v>
+        <v>0.50377792119979858</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>0.82690143585205078</v>
+        <v>3.4907665103673928E-2</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2894,16 +2928,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>0.97397863864898682</v>
+        <v>0.25952830910682678</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>0.78223925828933716</v>
+        <v>0.73598605394363403</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -2914,36 +2948,36 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>0.16281802952289581</v>
+        <v>1.1883139610290531E-2</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>6.4982580952346316E-3</v>
+        <v>2.731518633663654E-2</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>0.1190047711133957</v>
+        <v>1.396213471889496E-2</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>9.1060902923345566E-4</v>
+        <v>6.2586669810116291E-3</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2954,19 +2988,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>0.20574790239334109</v>
+        <v>0.82248389720916748</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>1.192882843315601E-2</v>
+        <v>0.94220548868179321</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2974,19 +3008,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>0.98953306674957275</v>
+        <v>7.7028781175613403E-2</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>0.99829226732254028</v>
+        <v>0.25543352961540222</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2994,19 +3028,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>8.2719884812831879E-3</v>
+        <v>0.32115399837493902</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>6.1690550297498703E-2</v>
+        <v>0.99673658609390259</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -3014,16 +3048,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>0.27290385961532593</v>
+        <v>1.169988326728344E-2</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>4.4097909703850746E-3</v>
+        <v>3.1401374144479632E-4</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3034,56 +3068,56 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>1.352017372846603E-2</v>
+        <v>5.475407000631094E-3</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>2.6651547523215408E-4</v>
+        <v>3.4418184077367192E-4</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>1.4152586460113531E-2</v>
+        <v>9.7975996322929859E-4</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1.3266650959849359E-2</v>
+        <v>3.4910310205305002E-5</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>1.2454649433493611E-2</v>
+        <v>9.1335357865318656E-4</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>3.6468689795583491E-3</v>
+        <v>1.4823392266407609E-3</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3094,56 +3128,56 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>0.94426268339157104</v>
+        <v>1.413543941453099E-3</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>0.53947538137435913</v>
+        <v>3.4322976716794067E-5</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>2.716775797307491E-2</v>
+        <v>0.99982869625091553</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>2.307775197550654E-3</v>
+        <v>0.9998478889465332</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>6.2876432202756396E-3</v>
+        <v>1.457346882671118E-2</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>5.1119335694238544E-4</v>
+        <v>1.573315821588039E-3</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3154,16 +3188,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>2.6660757139325142E-3</v>
+        <v>7.4933533323928714E-4</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>5.2064482588320971E-4</v>
+        <v>6.0010636225342751E-3</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3174,16 +3208,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>7.8599071130156517E-3</v>
+        <v>0.87673264741897583</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>3.08436956256628E-2</v>
+        <v>7.133921142667532E-3</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -3194,16 +3228,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>9.6345897763967514E-3</v>
+        <v>4.9981701886281371E-4</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>1.311894448008388E-4</v>
+        <v>5.2585969679057598E-3</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3214,36 +3248,36 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>0.91770768165588379</v>
+        <v>0.52563583850860596</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>0.99114066362380981</v>
+        <v>0.98931258916854858</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>3.233502060174942E-2</v>
+        <v>2.7516661211848259E-3</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>1.6305797034874561E-3</v>
+        <v>3.8581914850510657E-5</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -3254,16 +3288,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>0.120256133377552</v>
+        <v>4.7329715453088284E-3</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>0.15659366548061371</v>
+        <v>1.3861211016774179E-2</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -3274,16 +3308,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>1.9549090415239331E-2</v>
+        <v>1.054262183606625E-2</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>3.792453790083528E-3</v>
+        <v>3.4439371665939689E-4</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -3294,19 +3328,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>7.629376370459795E-3</v>
+        <v>8.295709639787674E-2</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>1.096051128115505E-4</v>
+        <v>0.8402668833732605</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3314,19 +3348,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>0.64107072353363037</v>
+        <v>0.99976617097854614</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>0.26454561948776251</v>
+        <v>0.99982988834381104</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -3334,36 +3368,36 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B105">
-        <v>0.21394725143909449</v>
+        <v>2.577347913756967E-3</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>3.5708416253328319E-3</v>
+        <v>5.663173645734787E-2</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>1.990969106554985E-2</v>
+        <v>5.2064482588320971E-4</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>7.9901923891156912E-4</v>
+        <v>1.3150933664292099E-3</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -3374,19 +3408,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>2.1394379436969761E-2</v>
+        <v>2.0952904596924782E-3</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0.96044397354125977</v>
+        <v>1.434563309885561E-3</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3394,56 +3428,56 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B108">
-        <v>0.97437924146652222</v>
+        <v>0.97297012805938721</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>7.2128765285015106E-2</v>
+        <v>0.88364911079406738</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>0.98992747068405151</v>
+        <v>4.5795695041306322E-4</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>0.96746593713760376</v>
+        <v>2.3950720787979659E-5</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B110">
-        <v>0.44433197379112238</v>
+        <v>0.99423050880432129</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>0.6192479133605957</v>
+        <v>0.81852298974990845</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -3454,56 +3488,56 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>1.222331076860428E-2</v>
+        <v>1.194489002227783E-2</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>2.7516661211848259E-3</v>
+        <v>0.677043616771698</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>0.40177884697914118</v>
+        <v>4.6595395542681217E-3</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0.50142323970794678</v>
+        <v>9.980785398511216E-5</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>2.2025575861334801E-2</v>
+        <v>3.08436956256628E-2</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>4.9981701886281371E-4</v>
+        <v>6.100170430727303E-4</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -3514,16 +3548,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>2.3080375045537949E-2</v>
+        <v>6.1690550297498703E-2</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>1.1351066641509531E-3</v>
+        <v>1.6184027481358501E-4</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -3534,16 +3568,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B115">
-        <v>6.8392874673008919E-3</v>
+        <v>8.2251220010221004E-4</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>1.4016157947480681E-3</v>
+        <v>7.1506783569930121E-6</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -3554,16 +3588,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>2.8393307700753209E-2</v>
+        <v>4.5881822006776929E-4</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>1.0853494517505171E-2</v>
+        <v>6.3550062477588654E-2</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -3574,39 +3608,39 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>0.5746694803237915</v>
+        <v>4.3744567781686783E-2</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>2.5480346754193309E-2</v>
+        <v>6.9747744128108016E-3</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>0.10833621025085451</v>
+        <v>9.4903487479314208E-4</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>0.99553537368774414</v>
+        <v>9.24912397749722E-4</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3614,16 +3648,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>1.8056686967611309E-2</v>
+        <v>1.0853494517505171E-2</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>6.0008064610883594E-4</v>
+        <v>0.23309445381164551</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -3634,16 +3668,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>2.775453589856625E-2</v>
+        <v>1.9451270345598459E-3</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>1.13552575930953E-3</v>
+        <v>6.7068707721773535E-5</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -3654,96 +3688,96 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>3.7536505609750748E-2</v>
+        <v>6.3521773554384708E-3</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>6.8256475031375885E-2</v>
+        <v>1.181198167614639E-3</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B122">
-        <v>0.61367559432983398</v>
+        <v>0.99966168403625488</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>0.89839094877243042</v>
+        <v>0.99599599838256836</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>0.9697611927986145</v>
+        <v>0.99905496835708618</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>0.82248389720916748</v>
+        <v>0.97712492942810059</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B124">
-        <v>4.9440055154263973E-3</v>
+        <v>2.6095503941178318E-2</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>1.3470490230247381E-3</v>
+        <v>5.0126843154430389E-2</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>0.87866556644439697</v>
+        <v>1.058293622918427E-3</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>1.3212590478360649E-2</v>
+        <v>1.292389002628624E-3</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -3754,19 +3788,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B126">
-        <v>0.60082697868347168</v>
+        <v>2.422402176307514E-4</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>0.94514679908752441</v>
+        <v>1.3763493916485461E-4</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -3774,79 +3808,79 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B127">
-        <v>0.74567872285842896</v>
+        <v>9.6088304417207837E-5</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>0.99344265460968018</v>
+        <v>3.5929840578319272E-6</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>2.0406141877174381E-2</v>
+        <v>0.14013902842998499</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>2.2145431488752369E-2</v>
+        <v>4.0124092251062393E-2</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B129">
-        <v>8.5706636309623718E-3</v>
+        <v>0.99977117776870728</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>2.5025691138580441E-4</v>
+        <v>0.9995996356010437</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B130">
-        <v>1.624155975878239E-2</v>
+        <v>3.460359200835228E-2</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>3.5334611311554909E-3</v>
+        <v>0.58999842405319214</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3854,39 +3888,39 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B131">
-        <v>1.3020342215895649E-2</v>
+        <v>0.98305630683898926</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>5.4684211499989033E-3</v>
+        <v>0.9916985034942627</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B132">
-        <v>0.45520183444023132</v>
+        <v>0.99114066362380981</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>1.027632504701614E-2</v>
+        <v>0.89163327217102051</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3894,36 +3928,36 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B133">
-        <v>7.8208863735198975E-2</v>
+        <v>1.668928936123848E-2</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>5.0375470891594887E-3</v>
+        <v>1.232230383902788E-2</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B134">
-        <v>0.91454076766967773</v>
+        <v>1.28014653455466E-4</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>4.7329715453088284E-3</v>
+        <v>6.5439926402177662E-5</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -3934,16 +3968,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B135">
-        <v>5.939740315079689E-2</v>
+        <v>1.6950284771155569E-4</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>7.1198411285877228E-2</v>
+        <v>3.7437948776641861E-6</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -3954,59 +3988,59 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B136">
-        <v>0.55935782194137573</v>
+        <v>1.3139826478436589E-4</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>0.99175149202346802</v>
+        <v>8.1778416642919183E-6</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B137">
-        <v>0.30971232056617742</v>
+        <v>0.9937407374382019</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>2.7937080711126331E-2</v>
+        <v>0.99762505292892456</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B138">
-        <v>2.5617839768528938E-2</v>
+        <v>0.71987819671630859</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>1.058293622918427E-3</v>
+        <v>0.58165037631988525</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -4014,19 +4048,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B139">
-        <v>1.145449467003345E-2</v>
+        <v>0.9938092827796936</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>1.0527936974540351E-3</v>
+        <v>0.99962222576141357</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -4034,96 +4068,96 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B140">
-        <v>4.300352931022644E-2</v>
+        <v>0.9997212290763855</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>1.28014653455466E-4</v>
+        <v>0.99458378553390503</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B141">
-        <v>7.5809601694345474E-3</v>
+        <v>0.28595796227455139</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>2.1662829385604709E-4</v>
+        <v>0.96961605548858643</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B142">
-        <v>1.2854384258389469E-2</v>
+        <v>0.99869555234909058</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>1.4122512948233629E-4</v>
+        <v>0.99991929531097412</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B143">
-        <v>0.94095075130462646</v>
+        <v>0.26454561948776251</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>1.1883139610290531E-2</v>
+        <v>0.99411231279373169</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B144">
-        <v>2.8303849976509809E-3</v>
+        <v>3.6374314222484831E-3</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144">
-        <v>1.28623063210398E-3</v>
+        <v>5.0088058924302459E-4</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -4134,16 +4168,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B145">
-        <v>4.7996430657804012E-3</v>
+        <v>1.24067310243845E-2</v>
       </c>
       <c r="C145">
         <v>0</v>
       </c>
       <c r="D145">
-        <v>3.3620148315094411E-4</v>
+        <v>5.3746709600090981E-3</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -4154,16 +4188,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B146">
-        <v>9.6691520884633064E-3</v>
+        <v>3.5334611311554909E-3</v>
       </c>
       <c r="C146">
         <v>0</v>
       </c>
       <c r="D146">
-        <v>4.5795695041306322E-4</v>
+        <v>5.5814121151342988E-4</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -4174,36 +4208,36 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B147">
-        <v>0.48298710584640497</v>
+        <v>6.8256475031375885E-2</v>
       </c>
       <c r="C147">
         <v>0</v>
       </c>
       <c r="D147">
-        <v>0.97297012805938721</v>
+        <v>0.95837843418121338</v>
       </c>
       <c r="E147">
         <v>1</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B148">
-        <v>0.75982052087783813</v>
+        <v>1.0362693574279551E-3</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148">
-        <v>0.32115399837493902</v>
+        <v>1.4743780775461351E-4</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -4214,16 +4248,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B149">
-        <v>1.6369316726922989E-2</v>
+        <v>0.72065132856369019</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>2.545704366639256E-3</v>
+        <v>0.2876582145690918</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -4234,16 +4268,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B150">
-        <v>0.27338656783103937</v>
+        <v>1.283218432217836E-2</v>
       </c>
       <c r="C150">
         <v>0</v>
       </c>
       <c r="D150">
-        <v>5.3833369165658951E-3</v>
+        <v>0.1857950538396835</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -4254,36 +4288,36 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B151">
-        <v>3.0066408216953281E-2</v>
+        <v>1.675744657404721E-3</v>
       </c>
       <c r="C151">
         <v>0</v>
       </c>
       <c r="D151">
-        <v>0.87673264741897583</v>
+        <v>1.898234942927957E-3</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B152">
-        <v>0.1590031832456589</v>
+        <v>3.868764266371727E-3</v>
       </c>
       <c r="C152">
         <v>0</v>
       </c>
       <c r="D152">
-        <v>0.57456022500991821</v>
+        <v>0.68182063102722168</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -4294,16 +4328,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B153">
-        <v>2.0874010398983959E-2</v>
+        <v>4.9495827406644821E-3</v>
       </c>
       <c r="C153">
         <v>0</v>
       </c>
       <c r="D153">
-        <v>2.422402176307514E-4</v>
+        <v>5.0341401947662234E-4</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -4314,19 +4348,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B154">
-        <v>0.29860925674438482</v>
+        <v>2.1004011854529381E-2</v>
       </c>
       <c r="C154">
         <v>0</v>
       </c>
       <c r="D154">
-        <v>3.9086719043552884E-3</v>
+        <v>0.97597801685333252</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -4334,56 +4368,56 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B155">
-        <v>0.97967499494552612</v>
+        <v>2.9823672026395801E-2</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>0.99977117776870728</v>
+        <v>0.1281206011772156</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B156">
-        <v>4.3559041805565357E-3</v>
+        <v>0.71734601259231567</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>1.029627965181135E-4</v>
+        <v>0.71633940935134888</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B157">
-        <v>5.8566242456436157E-2</v>
+        <v>1.7559801926836369E-4</v>
       </c>
       <c r="C157">
         <v>0</v>
       </c>
       <c r="D157">
-        <v>1.9591867923736569E-2</v>
+        <v>5.1367731066420674E-4</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -4394,36 +4428,36 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B158">
-        <v>1.7963239923119542E-2</v>
+        <v>2.1662829385604709E-4</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158">
-        <v>2.5025903596542781E-4</v>
+        <v>6.6541595151647925E-4</v>
       </c>
       <c r="E158">
         <v>0</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B159">
-        <v>1.7643488943576809E-2</v>
+        <v>5.5990242399275303E-3</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>5.475407000631094E-3</v>
+        <v>2.0077604800462719E-2</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -4434,36 +4468,36 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B160">
-        <v>0.2033834308385849</v>
+        <v>1.8662643560674039E-4</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>2.0982539281249051E-3</v>
+        <v>3.8164609577506781E-4</v>
       </c>
       <c r="E160">
         <v>0</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B161">
-        <v>0.94520795345306396</v>
+        <v>0.90588152408599854</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>0.49812054634094238</v>
+        <v>1.1810894124209881E-2</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -4474,56 +4508,56 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B162">
-        <v>1.7914054915308949E-2</v>
+        <v>1.343207061290741E-2</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>1.1670124949887391E-3</v>
+        <v>0.97356027364730835</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B163">
-        <v>4.1385803371667862E-2</v>
+        <v>2.5025691138580441E-4</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
       <c r="D163">
-        <v>2.6095503941178318E-2</v>
+        <v>7.7936833258718252E-4</v>
       </c>
       <c r="E163">
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B164">
-        <v>2.1442396566271778E-2</v>
+        <v>3.3831465407274658E-4</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="D164">
-        <v>6.2807979993522167E-3</v>
+        <v>2.2928797989152369E-4</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -4534,36 +4568,36 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B165">
-        <v>2.7553616091609001E-2</v>
+        <v>2.284827409312129E-3</v>
       </c>
       <c r="C165">
         <v>0</v>
       </c>
       <c r="D165">
-        <v>9.7065428271889687E-3</v>
+        <v>3.650756785646081E-3</v>
       </c>
       <c r="E165">
         <v>0</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B166">
-        <v>4.3913327157497413E-2</v>
+        <v>1.4528955216519529E-4</v>
       </c>
       <c r="C166">
         <v>0</v>
       </c>
       <c r="D166">
-        <v>4.6595395542681217E-3</v>
+        <v>1.286408078158274E-4</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -4574,36 +4608,36 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B167">
-        <v>0.96055638790130615</v>
+        <v>0.68696010112762451</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>0.1091105192899704</v>
+        <v>0.94779860973358154</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B168">
-        <v>7.1701300330460072E-3</v>
+        <v>1.13552575930953E-3</v>
       </c>
       <c r="C168">
         <v>0</v>
       </c>
       <c r="D168">
-        <v>1.9437427399680021E-3</v>
+        <v>2.4089058570098129E-4</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -4614,36 +4648,36 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B169">
-        <v>0.96871906518936157</v>
+        <v>2.0331967622041699E-2</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>4.5435316860675812E-3</v>
+        <v>3.6728169769048691E-2</v>
       </c>
       <c r="E169">
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B170">
-        <v>0.48306497931480408</v>
+        <v>4.2373000178486109E-4</v>
       </c>
       <c r="C170">
         <v>0</v>
       </c>
       <c r="D170">
-        <v>7.7049614628776908E-4</v>
+        <v>2.292702702106908E-4</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -4654,19 +4688,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B171">
-        <v>0.97894912958145142</v>
+        <v>4.338153637945652E-3</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171">
-        <v>0.99966371059417725</v>
+        <v>2.3575946397613731E-4</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -4674,36 +4708,36 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B172">
-        <v>2.3604528978466991E-2</v>
+        <v>0.2866208553314209</v>
       </c>
       <c r="C172">
         <v>0</v>
       </c>
       <c r="D172">
-        <v>1.386862422805279E-4</v>
+        <v>0.99356657266616821</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B173">
-        <v>1.3922750018537039E-2</v>
+        <v>6.0186475515365601E-2</v>
       </c>
       <c r="C173">
         <v>0</v>
       </c>
       <c r="D173">
-        <v>0.106507420539856</v>
+        <v>3.2067898660898209E-2</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -4714,119 +4748,119 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B174">
-        <v>0.97455716133117676</v>
+        <v>1.736333506414667E-4</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174">
-        <v>0.9997212290763855</v>
+        <v>2.1193687280174339E-4</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B175">
-        <v>0.10050993412733079</v>
+        <v>0.9895864725112915</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>0.10142152011394499</v>
+        <v>0.99843376874923706</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B176">
-        <v>1.3460199348628519E-2</v>
+        <v>0.99965143203735352</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>0.17621429264545441</v>
+        <v>0.98458570241928101</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B177">
-        <v>1.9104838371276859E-2</v>
+        <v>0.99146550893783569</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>2.0952904596924782E-3</v>
+        <v>0.56443339586257935</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B178">
-        <v>7.773413322865963E-3</v>
+        <v>0.33553755283355707</v>
       </c>
       <c r="C178">
         <v>0</v>
       </c>
       <c r="D178">
-        <v>1.6950284771155569E-4</v>
+        <v>0.5589287281036377</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B179">
-        <v>0.92480218410491943</v>
+        <v>5.3789887577295303E-2</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179">
-        <v>0.99989509582519531</v>
+        <v>4.4011477380990982E-2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -4834,76 +4868,76 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B180">
-        <v>0.99525755643844604</v>
+        <v>1.6908328980207441E-3</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180">
-        <v>0.99692803621292114</v>
+        <v>1.1920212273253131E-4</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B181">
-        <v>2.1869553253054619E-2</v>
+        <v>4.5148241333663464E-3</v>
       </c>
       <c r="C181">
         <v>0</v>
       </c>
       <c r="D181">
-        <v>4.2373000178486109E-4</v>
+        <v>0.98858994245529175</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B182">
-        <v>0.7784271240234375</v>
+        <v>0.99966979026794434</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>0.65420103073120117</v>
+        <v>0.99369579553604126</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B183">
-        <v>1.399202365428209E-2</v>
+        <v>1.0529282735660669E-4</v>
       </c>
       <c r="C183">
         <v>0</v>
       </c>
       <c r="D183">
-        <v>5.4299409384839237E-5</v>
+        <v>3.6230919704394178E-6</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -4914,19 +4948,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B184">
-        <v>0.5639614462852478</v>
+        <v>0.98869144916534424</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>5.3414054214954383E-2</v>
+        <v>0.99909257888793945</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4934,19 +4968,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B185">
-        <v>0.91927170753479004</v>
+        <v>7.2128765285015106E-2</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185">
-        <v>0.6108098030090332</v>
+        <v>4.0067121386528022E-2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -4954,39 +4988,39 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B186">
-        <v>0.26162967085838318</v>
+        <v>1.3212590478360649E-2</v>
       </c>
       <c r="C186">
         <v>0</v>
       </c>
       <c r="D186">
-        <v>0.99423050880432129</v>
+        <v>0.37750336527824402</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B187">
-        <v>0.9191126823425293</v>
+        <v>2.5591517332941289E-3</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187">
-        <v>0.99998950958251953</v>
+        <v>1.167191658169031E-4</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -4994,36 +5028,36 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B188">
-        <v>2.1097811404615641E-3</v>
+        <v>0.65420103073120117</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>1.018983218818903E-2</v>
+        <v>0.50975143909454346</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B189">
-        <v>0.77762848138809204</v>
+        <v>4.4097909703850746E-3</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189">
-        <v>6.3521773554384708E-3</v>
+        <v>3.2104147248901432E-4</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -5034,16 +5068,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B190">
-        <v>8.9641846716403961E-3</v>
+        <v>1.9591867923736569E-2</v>
       </c>
       <c r="C190">
         <v>0</v>
       </c>
       <c r="D190">
-        <v>1.4528955216519529E-4</v>
+        <v>0.10005362331867219</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -5054,39 +5088,39 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B191">
-        <v>0.29755893349647522</v>
+        <v>1.213271752931178E-3</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
       <c r="D191">
-        <v>0.99905496835708618</v>
+        <v>8.8456628145650029E-4</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B192">
-        <v>1.8074484542012211E-2</v>
+        <v>0.99829226732254028</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>1.1791543802246449E-3</v>
+        <v>0.99931633472442627</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -5094,36 +5128,36 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B193">
-        <v>0.85637879371643066</v>
+        <v>1.435055746696889E-3</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D193">
-        <v>0.25952830910682678</v>
+        <v>1.4537789393216369E-3</v>
       </c>
       <c r="E193">
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B194">
-        <v>1.615088805556297E-2</v>
+        <v>1.4016157947480681E-3</v>
       </c>
       <c r="C194">
         <v>0</v>
       </c>
       <c r="D194">
-        <v>9.465389302931726E-4</v>
+        <v>5.3488342091441146E-3</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -5134,16 +5168,16 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B195">
-        <v>2.7942098677158359E-2</v>
+        <v>1.018983218818903E-2</v>
       </c>
       <c r="C195">
         <v>0</v>
       </c>
       <c r="D195">
-        <v>1.562489941716194E-2</v>
+        <v>6.5637531224638224E-4</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -5154,16 +5188,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B196">
-        <v>7.4018086306750766E-3</v>
+        <v>1.562489941716194E-2</v>
       </c>
       <c r="C196">
         <v>0</v>
       </c>
       <c r="D196">
-        <v>2.003820613026619E-3</v>
+        <v>8.3311893045902252E-2</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -5174,16 +5208,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B197">
-        <v>8.4155209362506866E-2</v>
+        <v>7.4249727185815573E-4</v>
       </c>
       <c r="C197">
         <v>0</v>
       </c>
       <c r="D197">
-        <v>0.1057834476232529</v>
+        <v>8.9380581630393863E-4</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -5194,16 +5228,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B198">
-        <v>6.0636173002421856E-3</v>
+        <v>1.093999017030001E-2</v>
       </c>
       <c r="C198">
         <v>0</v>
       </c>
       <c r="D198">
-        <v>1.0529282735660669E-4</v>
+        <v>1.7442787066102031E-4</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -5214,16 +5248,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B199">
-        <v>4.1412334889173508E-2</v>
+        <v>1.605762355029583E-2</v>
       </c>
       <c r="C199">
         <v>0</v>
       </c>
       <c r="D199">
-        <v>2.8662247583270069E-2</v>
+        <v>0.34488296508789063</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -5234,16 +5268,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B200">
-        <v>0.1658640652894974</v>
+        <v>2.8662247583270069E-2</v>
       </c>
       <c r="C200">
         <v>0</v>
       </c>
       <c r="D200">
-        <v>4.4304048642516136E-3</v>
+        <v>7.4019550811499357E-4</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -5254,116 +5288,116 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B201">
-        <v>8.860698901116848E-3</v>
+        <v>0.61847174167633057</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>8.2251220010221004E-4</v>
+        <v>1.908582262694836E-2</v>
       </c>
       <c r="E201">
         <v>0</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B202">
-        <v>4.0399935096502297E-2</v>
+        <v>1.5916703268885609E-2</v>
       </c>
       <c r="C202">
         <v>0</v>
       </c>
       <c r="D202">
-        <v>1.784815220162272E-3</v>
+        <v>0.1515743434429169</v>
       </c>
       <c r="E202">
         <v>0</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B203">
-        <v>0.99477589130401611</v>
+        <v>0.95966088771820068</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>0.99869555234909058</v>
+        <v>8.1015594303607941E-2</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B204">
-        <v>0.1972104758024216</v>
+        <v>2.6651547523215408E-4</v>
       </c>
       <c r="C204">
         <v>0</v>
       </c>
       <c r="D204">
-        <v>0.98674309253692627</v>
+        <v>3.3649106044322248E-3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B205">
-        <v>9.9996864795684814E-2</v>
+        <v>0.89839094877243042</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>0.33206838369369512</v>
+        <v>0.19787558913230899</v>
       </c>
       <c r="E205">
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B206">
-        <v>5.1390688866376877E-2</v>
+        <v>2.7937080711126331E-2</v>
       </c>
       <c r="C206">
         <v>0</v>
       </c>
       <c r="D206">
-        <v>2.2214861586689949E-2</v>
+        <v>1.321599259972572E-2</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -5374,36 +5408,36 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B207">
-        <v>2.001604251563549E-2</v>
+        <v>0.87830853462219238</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>1.457346882671118E-2</v>
+        <v>0.41058826446533198</v>
       </c>
       <c r="E207">
         <v>0</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B208">
-        <v>6.4642257988452911E-2</v>
+        <v>3.9086719043552884E-3</v>
       </c>
       <c r="C208">
         <v>0</v>
       </c>
       <c r="D208">
-        <v>2.284827409312129E-3</v>
+        <v>7.0330612361431122E-2</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -5414,16 +5448,16 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B209">
-        <v>0.47598093748092651</v>
+        <v>1.670882338657975E-3</v>
       </c>
       <c r="C209">
         <v>0</v>
       </c>
       <c r="D209">
-        <v>1.9658633973449469E-3</v>
+        <v>6.773962639272213E-3</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -5434,36 +5468,36 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B210">
-        <v>0.78547185659408569</v>
+        <v>6.2516685575246811E-3</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D210">
-        <v>2.1004011854529381E-2</v>
+        <v>2.83267511986196E-3</v>
       </c>
       <c r="E210">
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B211">
-        <v>1.5213341452181339E-2</v>
+        <v>3.225385735277086E-4</v>
       </c>
       <c r="C211">
         <v>0</v>
       </c>
       <c r="D211">
-        <v>3.868764266371727E-3</v>
+        <v>7.0506888732779771E-5</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -5474,36 +5508,36 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B212">
-        <v>0.98101061582565308</v>
+        <v>2.2044667974114421E-2</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D212">
-        <v>0.23918929696083069</v>
+        <v>1.4453583396971229E-2</v>
       </c>
       <c r="E212">
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B213">
-        <v>0.94793277978897095</v>
+        <v>0.99369639158248901</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>0.98329991102218628</v>
+        <v>0.83058816194534302</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -5514,19 +5548,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B214">
-        <v>0.98974424600601196</v>
+        <v>2.003820613026619E-3</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D214">
-        <v>0.99540740251541138</v>
+        <v>1.6256391973001879E-5</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -5534,16 +5568,16 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B215">
-        <v>0.92956763505935669</v>
+        <v>0.106507420539856</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D215">
-        <v>2.9957616701722149E-2</v>
+        <v>0.26304647326469421</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -5554,16 +5588,16 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B216">
-        <v>2.096209675073624E-2</v>
+        <v>5.4299409384839237E-5</v>
       </c>
       <c r="C216">
         <v>0</v>
       </c>
       <c r="D216">
-        <v>1.0224355384707451E-2</v>
+        <v>2.1326070054783489E-5</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -5574,159 +5608,159 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B217">
-        <v>3.4518182277679443E-2</v>
+        <v>0.99978846311569214</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>1.054262183606625E-2</v>
+        <v>0.99752765893936157</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B218">
-        <v>0.84762609004974365</v>
+        <v>9.7065428271889687E-3</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D218">
-        <v>2.1141378208994869E-2</v>
+        <v>3.3647874370217319E-3</v>
       </c>
       <c r="E218">
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B219">
-        <v>0.10277906805276869</v>
+        <v>0.53738659620285034</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>1.435055746696889E-3</v>
+        <v>5.9497170150279999E-2</v>
       </c>
       <c r="E219">
         <v>0</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B220">
-        <v>0.14456537365913391</v>
+        <v>2.545704366639256E-3</v>
       </c>
       <c r="C220">
         <v>0</v>
       </c>
       <c r="D220">
-        <v>0.99369639158248901</v>
+        <v>9.3094696057960391E-4</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B221">
-        <v>5.241234228014946E-2</v>
+        <v>1.192882843315601E-2</v>
       </c>
       <c r="C221">
         <v>0</v>
       </c>
       <c r="D221">
-        <v>6.0251745162531734E-4</v>
+        <v>0.82890820503234863</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B222">
-        <v>0.26012030243873602</v>
+        <v>0.57456022500991821</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>7.4093728326261044E-3</v>
+        <v>0.97692012786865234</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B223">
-        <v>0.66221874952316284</v>
+        <v>5.5495809647254653E-5</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D223">
-        <v>0.33553755283355707</v>
+        <v>5.2114777645329007E-5</v>
       </c>
       <c r="E223">
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B224">
-        <v>1.3124061748385429E-2</v>
+        <v>8.0009652301669121E-3</v>
       </c>
       <c r="C224">
         <v>0</v>
       </c>
       <c r="D224">
-        <v>0.8104674220085144</v>
+        <v>2.9313879087567329E-2</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -5734,56 +5768,56 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B225">
-        <v>0.25466230511665339</v>
+        <v>4.4304048642516136E-3</v>
       </c>
       <c r="C225">
         <v>0</v>
       </c>
       <c r="D225">
-        <v>0.99950110912322998</v>
+        <v>0.35656711459159851</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B226">
-        <v>0.81112736463546753</v>
+        <v>0.93570816516876221</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>0.90588152408599854</v>
+        <v>0.99727576971054077</v>
       </c>
       <c r="E226">
         <v>1</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B227">
-        <v>0.82081705331802368</v>
+        <v>1.784815220162272E-3</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D227">
-        <v>0.14178165793418879</v>
+        <v>8.0391550436615944E-3</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -5794,56 +5828,56 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B228">
-        <v>2.206264995038509E-2</v>
+        <v>0.41062703728675842</v>
       </c>
       <c r="C228">
         <v>0</v>
       </c>
       <c r="D228">
-        <v>9.9470112472772598E-3</v>
+        <v>0.99689203500747681</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B229">
-        <v>4.5847692526876926E-3</v>
+        <v>0.18794946372509</v>
       </c>
       <c r="C229">
         <v>0</v>
       </c>
       <c r="D229">
-        <v>7.529799360781908E-3</v>
+        <v>3.7393983453512192E-2</v>
       </c>
       <c r="E229">
         <v>0</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B230">
-        <v>1.0118536651134489E-2</v>
+        <v>2.9957616701722149E-2</v>
       </c>
       <c r="C230">
         <v>0</v>
       </c>
       <c r="D230">
-        <v>3.2712465326767408E-5</v>
+        <v>4.6159061603248119E-3</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -5854,19 +5888,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B231">
-        <v>0.28014132380485529</v>
+        <v>0.1091105192899704</v>
       </c>
       <c r="C231">
         <v>0</v>
       </c>
       <c r="D231">
-        <v>2.8016295284032822E-2</v>
+        <v>0.56600677967071533</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -5874,16 +5908,16 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B232">
-        <v>4.7261487692594528E-2</v>
+        <v>1.2277277419343591E-3</v>
       </c>
       <c r="C232">
         <v>0</v>
       </c>
       <c r="D232">
-        <v>1.0260778479278089E-2</v>
+        <v>2.8927033417858178E-4</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -5894,36 +5928,36 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B233">
-        <v>1.921726576983929E-2</v>
+        <v>1.3224196154624219E-3</v>
       </c>
       <c r="C233">
         <v>0</v>
       </c>
       <c r="D233">
-        <v>0.65368443727493286</v>
+        <v>3.1592205687047681E-6</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B234">
-        <v>0.99868243932723999</v>
+        <v>0.99986326694488525</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>0.99965143203735352</v>
+        <v>0.98578423261642456</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -5934,16 +5968,16 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B235">
-        <v>3.4181859344244003E-2</v>
+        <v>5.0168354064226151E-3</v>
       </c>
       <c r="C235">
         <v>0</v>
       </c>
       <c r="D235">
-        <v>4.5881822006776929E-4</v>
+        <v>0.38000082969665527</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -5954,16 +5988,16 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B236">
-        <v>0.91993421316146851</v>
+        <v>0.98329991102218628</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>0.97019964456558228</v>
+        <v>0.99368864297866821</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -5974,16 +6008,16 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B237">
-        <v>0.47675684094429022</v>
+        <v>0.17621429264545441</v>
       </c>
       <c r="C237">
         <v>0</v>
       </c>
       <c r="D237">
-        <v>0.28595796227455139</v>
+        <v>1.390745863318443E-2</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -5994,36 +6028,36 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B238">
-        <v>1.285478379577398E-2</v>
+        <v>0.99952554702758789</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>5.3789887577295303E-2</v>
+        <v>0.99748045206069946</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B239">
-        <v>0.57700777053833008</v>
+        <v>0.4569956362247467</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D239">
-        <v>6.048095878213644E-3</v>
+        <v>3.7633897736668591E-3</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -6034,36 +6068,36 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B240">
-        <v>7.5123012065887451E-2</v>
+        <v>0.37407574057579041</v>
       </c>
       <c r="C240">
         <v>0</v>
       </c>
       <c r="D240">
-        <v>1.675524283200502E-3</v>
+        <v>0.99885618686676025</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B241">
-        <v>1.7957614734768871E-2</v>
+        <v>7.7049614628776908E-4</v>
       </c>
       <c r="C241">
         <v>0</v>
       </c>
       <c r="D241">
-        <v>8.1940216477960348E-4</v>
+        <v>7.3526200139895082E-4</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -6074,19 +6108,19 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B242">
-        <v>0.95746344327926636</v>
+        <v>1.6305797034874561E-3</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D242">
-        <v>0.98869144916534424</v>
+        <v>1.755026285536587E-3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -6094,36 +6128,36 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B243">
-        <v>6.5257102251052856E-3</v>
+        <v>0.98483049869537354</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>3.225385735277086E-4</v>
+        <v>0.99218666553497314</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B244">
-        <v>1.9466575235128399E-2</v>
+        <v>1.386862422805279E-4</v>
       </c>
       <c r="C244">
         <v>0</v>
       </c>
       <c r="D244">
-        <v>1.169988326728344E-2</v>
+        <v>1.010050400509499E-4</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -6134,19 +6168,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B245">
-        <v>0.98302954435348511</v>
+        <v>2.080048288917169E-4</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D245">
-        <v>0.9895864725112915</v>
+        <v>6.4542575273662806E-5</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -6154,19 +6188,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B246">
-        <v>4.3481807224452504E-3</v>
+        <v>0.99553537368774414</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>5.0942297093570232E-4</v>
+        <v>0.99960952997207642</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -6174,16 +6208,16 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B247">
-        <v>7.6590254902839661E-3</v>
+        <v>0.1057834476232529</v>
       </c>
       <c r="C247">
         <v>0</v>
       </c>
       <c r="D247">
-        <v>7.4933533323928714E-4</v>
+        <v>0.17516471445560461</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -6194,36 +6228,36 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B248">
-        <v>4.8784930258989334E-3</v>
+        <v>0.1739835441112518</v>
       </c>
       <c r="C248">
         <v>0</v>
       </c>
       <c r="D248">
-        <v>0.38696840405464172</v>
+        <v>0.90758830308914185</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B249">
-        <v>3.7248328328132629E-2</v>
+        <v>3.967459499835968E-2</v>
       </c>
       <c r="C249">
         <v>0</v>
       </c>
       <c r="D249">
-        <v>9.1335357865318656E-4</v>
+        <v>9.4300135970115662E-4</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -6234,16 +6268,16 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B250">
-        <v>0.90375900268554688</v>
+        <v>5.6493159383535392E-2</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250">
-        <v>0.99966168403625488</v>
+        <v>0.98142158985137939</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -6254,19 +6288,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B251">
-        <v>1.3154390268027781E-2</v>
+        <v>2.4768360890448089E-3</v>
       </c>
       <c r="C251">
         <v>0</v>
       </c>
       <c r="D251">
-        <v>0.50377792119979858</v>
+        <v>1.802488841349259E-4</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -6274,16 +6308,16 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B252">
-        <v>0.33527851104736328</v>
+        <v>7.4093728326261044E-3</v>
       </c>
       <c r="C252">
         <v>0</v>
       </c>
       <c r="D252">
-        <v>2.7090571820735931E-2</v>
+        <v>4.5547056943178177E-2</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -6294,16 +6328,16 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B253">
-        <v>1.4011627994477751E-2</v>
+        <v>1.28623063210398E-3</v>
       </c>
       <c r="C253">
         <v>0</v>
       </c>
       <c r="D253">
-        <v>3.3831465407274658E-4</v>
+        <v>3.2135730143636469E-3</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -6314,19 +6348,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B254">
-        <v>0.97746539115905762</v>
+        <v>0.38696840405464172</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D254">
-        <v>0.99982869625091553</v>
+        <v>2.6085441932082181E-3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -6334,16 +6368,16 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B255">
-        <v>0.46607312560081482</v>
+        <v>0.99966371059417725</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>0.70275229215621948</v>
+        <v>0.99742090702056885</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -6354,19 +6388,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B256">
-        <v>0.93597716093063354</v>
+        <v>0.99692803621292114</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>0.1009175106883049</v>
+        <v>0.9993550181388855</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -6374,56 +6408,56 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B257">
-        <v>0.98024266958236694</v>
+        <v>2.5480346754193309E-2</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D257">
-        <v>6.4511425793170929E-2</v>
+        <v>1.57657191157341E-2</v>
       </c>
       <c r="E257">
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B258">
-        <v>5.0772996619343758E-3</v>
+        <v>0.97064769268035889</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>7.4249727185815573E-4</v>
+        <v>0.99617898464202881</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B259">
-        <v>0.95852464437484741</v>
+        <v>2.1137141156941648E-3</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D259">
-        <v>1.605762355029583E-2</v>
+        <v>8.7613068521022797E-2</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -6434,39 +6468,39 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B260">
-        <v>5.1102872937917709E-2</v>
+        <v>2.2490344941616058E-2</v>
       </c>
       <c r="C260">
         <v>0</v>
       </c>
       <c r="D260">
-        <v>4.4905133545398712E-3</v>
+        <v>8.729785680770874E-3</v>
       </c>
       <c r="E260">
         <v>0</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B261">
-        <v>1.523539610207081E-2</v>
+        <v>0.1416955292224884</v>
       </c>
       <c r="C261">
         <v>0</v>
       </c>
       <c r="D261">
-        <v>1.2277277419343591E-3</v>
+        <v>0.75288993120193481</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -6474,16 +6508,16 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B262">
-        <v>0.99178165197372437</v>
+        <v>0.23958492279052729</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D262">
-        <v>0.93570816516876221</v>
+        <v>0.97812414169311523</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -6494,16 +6528,16 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B263">
-        <v>6.4517082646489143E-3</v>
+        <v>3.7687926087528472E-3</v>
       </c>
       <c r="C263">
         <v>0</v>
       </c>
       <c r="D263">
-        <v>1.093999017030001E-2</v>
+        <v>3.030756488442421E-4</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -6514,19 +6548,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B264">
-        <v>0.9833524227142334</v>
+        <v>0.98667162656784058</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>0.95966088771820068</v>
+        <v>7.8544029965996742E-3</v>
       </c>
       <c r="E264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -6534,76 +6568,76 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B265">
-        <v>2.1315433084964749E-2</v>
+        <v>0.1604016721248627</v>
       </c>
       <c r="C265">
         <v>0</v>
       </c>
       <c r="D265">
-        <v>1.194489002227783E-2</v>
+        <v>8.2045450806617737E-2</v>
       </c>
       <c r="E265">
         <v>0</v>
       </c>
       <c r="F265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B266">
-        <v>0.32345318794250488</v>
+        <v>2.0566747116390621E-4</v>
       </c>
       <c r="C266">
         <v>0</v>
       </c>
       <c r="D266">
-        <v>0.95101022720336914</v>
+        <v>6.498043512692675E-5</v>
       </c>
       <c r="E266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B267">
-        <v>0.41979143023490911</v>
+        <v>0.99998986721038818</v>
       </c>
       <c r="C267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>0.31629881262779241</v>
+        <v>0.9999765157699585</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B268">
-        <v>7.3285829275846481E-3</v>
+        <v>0.99362999200820923</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>2.080048288917169E-4</v>
+        <v>0.15543375909328461</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -6614,16 +6648,16 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B269">
-        <v>0.1118292137980461</v>
+        <v>9.4428349984809756E-4</v>
       </c>
       <c r="C269">
         <v>0</v>
       </c>
       <c r="D269">
-        <v>1.396213471889496E-2</v>
+        <v>2.0449620205909011E-4</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -6634,36 +6668,36 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B270">
-        <v>0.51133173704147339</v>
+        <v>0.99724626541137695</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>0.39506259560585022</v>
+        <v>0.99985861778259277</v>
       </c>
       <c r="E270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B271">
-        <v>0.73232698440551758</v>
+        <v>0.50435340404510498</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>0.71734601259231567</v>
+        <v>0.88696330785751343</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -6674,19 +6708,19 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B272">
-        <v>0.63076221942901611</v>
+        <v>0.54075217247009277</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>1.5916703268885609E-2</v>
+        <v>0.99895918369293213</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272">
         <v>1</v>
@@ -6694,16 +6728,16 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B273">
-        <v>2.156711183488369E-2</v>
+        <v>1.103971590055153E-4</v>
       </c>
       <c r="C273">
         <v>0</v>
       </c>
       <c r="D273">
-        <v>2.6530766626819968E-4</v>
+        <v>1.351323735434562E-4</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -6714,62 +6748,62 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B274">
-        <v>0.99716788530349731</v>
+        <v>1.7218772321939468E-2</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D274">
-        <v>0.99986326694488525</v>
+        <v>1.017157826572657E-2</v>
       </c>
       <c r="E274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B275">
-        <v>1.0476255789399151E-2</v>
+        <v>5.0044461386278272E-4</v>
       </c>
       <c r="C275">
         <v>0</v>
       </c>
       <c r="D275">
-        <v>1.6908328980207441E-3</v>
+        <v>1.110516488552094E-2</v>
       </c>
       <c r="E275">
         <v>0</v>
       </c>
       <c r="F275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B276">
-        <v>0.36000359058380133</v>
+        <v>6.3860006630420685E-2</v>
       </c>
       <c r="C276">
         <v>0</v>
       </c>
       <c r="D276">
-        <v>2.9823672026395801E-2</v>
+        <v>4.5653998851776123E-2</v>
       </c>
       <c r="E276">
         <v>0</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
